--- a/biology/Botanique/Magnolia/Magnolia.xlsx
+++ b/biology/Botanique/Magnolia/Magnolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les magnolias ou magnoliers (Magnolia L., 1753) forment un genre de plantes à fleurs, de la famille des Magnoliacées, qui comprend environ 110 espèces, essentiellement des arbres et arbustes, des régions tempérées chaudes.
-Les fleurs de magnolia attirent les insectes pollinisateurs. Les carpelles des fleurs de magnolia sont extrêmement robustes : ils ne sont pas endommagés par les coléoptères pollinisateurs[2]. Les magnolias sont apparus avant les coléoptères ; des spécimens fossilisés de Magnolia acuminata datent de 20 millions d'années et des spécimens appartenant à la famille des Magnoliaceae de 95 millions d'années. Un des aspects primitifs des magnolias est leur absence de distinction entre sépales et pétales.
+Les fleurs de magnolia attirent les insectes pollinisateurs. Les carpelles des fleurs de magnolia sont extrêmement robustes : ils ne sont pas endommagés par les coléoptères pollinisateurs. Les magnolias sont apparus avant les coléoptères ; des spécimens fossilisés de Magnolia acuminata datent de 20 millions d'années et des spécimens appartenant à la famille des Magnoliaceae de 95 millions d'années. Un des aspects primitifs des magnolias est leur absence de distinction entre sépales et pétales.
 Les magnolias ont une distribution naturelle discontinue, avec un centre principal dans l'est et dans le sud de l'Asie et un centre secondaire dans l'est de l'Amérique du Nord, Amérique centrale, aux Antilles, et pour certaines espèces en Amérique du Sud.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Linné a retenu le nom de genre Magnolia dans le Species Plantarum (1753, 1, p. 535), point de départ de la nomenclature botanique. Le nom avait été créé par le Père Charles Plumier (1646-1704), en l'honneur de Pierre Magnol (1638-1715), médecin et botaniste français, qui fut directeur du jardin botanique de Montpellier. Il a ensuite été repris par Mark Catesby dans son Histoire naturelle de la Caroline, la Floride, &amp; les isles Bahama, (1731, 1, p. 39), puis Johann Jacob Dillenius dans son Hortus Elthamensis (1732, p. 207, pl. 168).
 </t>
@@ -544,7 +558,9 @@
           <t>Principales caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres ou arbustes, à feuilles généralement grandes, alternes, ovales ou elliptiques, caduques ou persistantes, généralement coriaces.
 Les fleurs solitaires, sont grandes, très décoratives, souvent dressées, généralement en forme de coupe. Le périgone est formé de six à neuf tépales pétaloïdes (pétales et sépales indifférenciés) de couleur claire, blanc rosé, jaune clair. Les étamines, très nombreuses sont lamellaires. Les carpelles sont disposés en cône sur le réceptacle. Pour les botanistes, c'est une fleur primitive. 
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les magnolias sont originaires d'Extrême-Orient (Japon, Chine), d'Asie centrale (Himalaya), d'Amérique du Nord (Sud des États-Unis), et d'Amérique centrale. Ils ont été largement acclimatés en Europe.
 Céleste de Chateaubriand écrit : "L'impératrice Joséphine...nous fit présent de plusieurs arbustes et surtout d'un magnolia à fleurs pourpres, le seul qu'il y eût alors en France après celui qui lui restait à la Malmaison". (Souvenirs de Mme de Chateaubriand, p.44).
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (24 août 2014)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 août 2014) :
 Magnolia acuminata
 Magnolia albosericea
 Magnolia allenii
@@ -856,7 +876,7 @@
 Magnolia yuyuanensis
 Magnolia zenii
 Magnolia zhengyiana
-Selon GRIN            (24 août 2014)[4] :
+Selon GRIN            (24 août 2014) :
 Magnolia acuminata (L.) L.
 Magnolia ×alba (DC.) Figlar
 Magnolia ashei Weath.
@@ -926,7 +946,7 @@
 Magnolia wilsonii (Finet &amp; Gagnep.) Rehder
 Magnolia yoroconte Dandy
 Magnolia zenii W. C. Cheng
-Selon ITIS      (24 août 2014)[5] :
+Selon ITIS      (24 août 2014) :
 Magnolia acuminata (L.) L.
 Magnolia ashei Weath.
 Magnolia champaca (L.) Baill. ex Pierre
@@ -945,7 +965,7 @@
 Magnolia stellata (Siebold &amp; Zucc.) Maxim.
 Magnolia tripetala (L.) L.
 Magnolia virginiana L.
-Selon World Checklist of Selected Plant Families (WCSP)  (24 août 2014)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 août 2014) :
 Magnolia acuminata (L.) L., Syst. Nat. ed. 10 (1759)
 variété Magnolia acuminata var. acuminata
 variété Magnolia acuminata var. subcordata (Spach) Dandy (1964)
@@ -1247,7 +1267,7 @@
 Magnolia zenii W.C.Cheng, Contrib. Biol. Lab. Chin. Assoc. Advancem. Sci. (1933)
 Magnolia zhengyiana (N.H.Xia) Noot. (2008)
 Magnolia zoquepopolucae A.Vázquez (2012)
-Selon The Plant List            (24 août 2014)[7] :
+Selon The Plant List            (24 août 2014) :
 Magnolia acuminata (L.) L.
 Magnolia albosericea Chun &amp; C.H.Tsoong
 Magnolia allenii Standl.
@@ -1490,7 +1510,7 @@
 Magnolia yuyuanensis (Y.W.Law) V.S.Kumar
 Magnolia zenii W.C.Cheng
 Magnolia zhengyiana (N.H.Xia) Noot.
-Selon Tropicos                                           (24 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Magnolia acuminata (L.) L.
 Magnolia aenea (Dandy) Figlar
 Magnolia aequinoctialis Dandy
@@ -1540,7 +1560,7 @@
 Mangolia brasiliensis C.O. Azevedo, A.F.P. Machado &amp; A. Vázquez
 Magnolia burchelliana Steud.
 Magnolia cacuminicola Bisse
-Mag</t>
+Magnolia calimaensis </t>
         </is>
       </c>
     </row>
@@ -1568,9 +1588,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, le magnolia symbolise la force[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le magnolia symbolise la force.
 </t>
         </is>
       </c>
